--- a/Dataset_Corrosion.xlsx
+++ b/Dataset_Corrosion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios\TECTONIC_quantAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F71FF3-C1BA-490E-B73A-3FBC80DAF51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51960618-8909-4105-8D0D-1C2181B3FC5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Temperatura (°C)</t>
+    <t>Pressure</t>
   </si>
   <si>
-    <t>Salinidad (PSU)</t>
+    <t>Corrosion</t>
   </si>
   <si>
-    <t>Presión (decibar)</t>
+    <t>Salinity</t>
   </si>
   <si>
-    <t>Corrosión (mm/año)</t>
+    <t>Temperature</t>
   </si>
 </sst>
 </file>
@@ -114,9 +114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,9 +154,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +189,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +241,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,11 +436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
@@ -416,16 +448,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
